--- a/earlywarning-pom/Document/test/test_Br37_override.xlsx
+++ b/earlywarning-pom/Document/test/test_Br37_override.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="casistiche_indeterminate" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Analysis_unit" sheetId="3" r:id="rId3"/>
     <sheet name="Output" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>SNDG</t>
   </si>
@@ -30,42 +30,12 @@
     <t>valore atteso</t>
   </si>
   <si>
-    <t>0000000000000001</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
     <t>0000000000000002</t>
   </si>
   <si>
-    <t>0000000000000003</t>
-  </si>
-  <si>
-    <t>0000000000000004</t>
-  </si>
-  <si>
-    <t>0000000000000005</t>
-  </si>
-  <si>
-    <t>0000000000000006</t>
-  </si>
-  <si>
-    <t>0000000000000007</t>
-  </si>
-  <si>
-    <t>0000000000000008</t>
-  </si>
-  <si>
-    <t>0000000000000009</t>
-  </si>
-  <si>
-    <t>0000000000000010</t>
-  </si>
-  <si>
-    <t>ERROR_MSG_IND_2_atteso</t>
-  </si>
-  <si>
     <t>CASISTICHE</t>
   </si>
   <si>
@@ -123,9 +93,6 @@
     <t>BR_37_OVERRIDE</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>ERROR_MSG_IND</t>
   </si>
   <si>
@@ -135,18 +102,9 @@
     <t>VAL_BR_37_OVERRIDE</t>
   </si>
   <si>
-    <t>BR117BIS</t>
-  </si>
-  <si>
     <t>IND_79</t>
   </si>
   <si>
-    <t>IND_117_FL_OVERRIDE</t>
-  </si>
-  <si>
-    <t>IND_117_FL_SUPER</t>
-  </si>
-  <si>
     <t>S30</t>
   </si>
   <si>
@@ -160,12 +118,63 @@
   </si>
   <si>
     <t>BR37BIS</t>
+  </si>
+  <si>
+    <t>w01</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>valori attesi</t>
+  </si>
+  <si>
+    <t>ind_37_fl_override</t>
+  </si>
+  <si>
+    <t>ind_37_super</t>
+  </si>
+  <si>
+    <t>br37</t>
+  </si>
+  <si>
+    <t>br37BIS</t>
+  </si>
+  <si>
+    <t>IND_37_FL_SUPER</t>
+  </si>
+  <si>
+    <t>W00</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNDG </t>
+  </si>
+  <si>
+    <t>WORKSPACE</t>
+  </si>
+  <si>
+    <t>UPDATE CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +229,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -248,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,6 +305,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,124 +642,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C19"/>
+  <dimension ref="B3:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="19">
+        <v>13075387</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19">
+        <v>24854539</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19">
+        <v>17731543</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>47262178</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17874284</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18006149</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>26816523</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74643258</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>28180205</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>17732089</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,191 +1091,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="18">
+        <v>24854539</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18">
+        <v>13075387</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18">
+        <v>17731543</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>33</v>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18">
+        <v>24854539</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18">
+        <v>13075387</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18">
+        <v>17731543</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,29 +1322,29 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -953,7 +1354,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -963,7 +1364,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -973,7 +1374,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -991,298 +1392,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>13075387</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7"/>
-      <c r="J3" s="1"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7"/>
-      <c r="J4" s="1"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>17731543</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <v>47262178</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17874284</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18006149</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="J5" s="1"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="J6" s="1"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
-      <c r="J7" s="1"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="J8" s="1"/>
-      <c r="L8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4">
+        <v>26816523</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>74643258</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4">
+        <v>28180205</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4">
+        <v>17732089</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="N15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
